--- a/assets/files/CV21.xlsx
+++ b/assets/files/CV21.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -311,12 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,1998 +625,1998 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="20" max="20" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>37.185929648241206</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>31.155778894472363</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>11.055276381909549</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>18.592964824120603</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>2.0100502512562812</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>199</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>30.158730158730158</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>38.095238095238095</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>7.9365079365079367</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>21.164021164021165</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="4">
         <v>2.6455026455026456</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="5">
         <v>189</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>33.762886597938142</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>34.536082474226802</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>9.536082474226804</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>19.845360824742269</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="4">
         <v>2.3195876288659796</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="5">
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>18.930041152263374</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>39.094650205761319</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>4.5267489711934159</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>31.275720164609055</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>6.1728395061728394</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>243</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>34.166666666666664</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>41.666666666666664</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>4.166666666666667</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>19.166666666666668</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>0.83333333333333337</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>120</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>23.966942148760332</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>39.944903581267219</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>4.4077134986225897</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>27.272727272727273</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>4.4077134986225897</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="5">
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>41.839080459770116</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>27.356321839080461</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>14.25287356321839</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>11.494252873563218</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>5.0574712643678161</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>435</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>51.440329218106996</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>23.045267489711936</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>10.699588477366255</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>11.522633744855968</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <v>3.2921810699588478</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>243</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>45.280235988200587</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>25.811209439528024</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>12.979351032448378</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>11.504424778761061</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>4.4247787610619467</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="5">
         <v>678</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>31.645569620253166</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>51.898734177215189</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>8.8607594936708853</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>6.3291139240506329</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>1.2658227848101267</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>79</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>40.647482014388487</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>35.611510791366904</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>12.949640287769784</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>8.2733812949640289</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <v>2.5179856115107913</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>278</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>38.655462184873947</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>39.215686274509807</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>12.044817927170868</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>7.8431372549019605</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="4">
         <v>2.2408963585434174</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>45.402298850574709</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>19.540229885057471</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>18.96551724137931</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>4.0229885057471266</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>12.068965517241379</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>174</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>44.230769230769234</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>19.23076923076923</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>14.423076923076923</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>9.615384615384615</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>12.5</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>104</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>44.964028776978417</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>19.424460431654676</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>17.266187050359711</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>6.1151079136690649</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>12.23021582733813</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="5">
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>31.794871794871796</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>15.897435897435898</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>19.487179487179485</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>13.333333333333334</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>19.487179487179485</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>195</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>33.018867924528301</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>9.9056603773584904</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>29.245283018867923</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>11.79245283018868</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>16.037735849056602</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>212</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>32.432432432432435</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>12.776412776412776</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>24.570024570024572</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>12.530712530712531</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>17.690417690417689</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="5">
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>27.906976744186046</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>30.232558139534884</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>11.627906976744185</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>23.255813953488371</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>6.9767441860465116</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>30.581039755351682</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>35.168195718654431</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>15.596330275229358</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>12.538226299694189</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>6.1162079510703364</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>327</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>30.27027027027027</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>34.594594594594597</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>15.135135135135135</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>13.783783783783784</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="4">
         <v>6.2162162162162158</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="5">
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>49.59349593495935</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>24.796747967479675</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>9.3495934959349594</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>10.975609756097562</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>5.2845528455284549</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>246</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>41.726618705035975</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>31.654676258992804</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>7.9136690647482011</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>15.827338129496402</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>2.8776978417266186</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>46.753246753246756</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>27.272727272727273</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>8.8311688311688314</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>12.727272727272727</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>4.4155844155844157</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="5">
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>60.465116279069768</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>23.255813953488371</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>8.1395348837209305</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>8.1395348837209305</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>86</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>54.838709677419352</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>16.129032258064516</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>17.562724014336919</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>7.8853046594982077</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>3.5842293906810037</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>279</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>56.164383561643838</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>17.80821917808219</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>15.342465753424657</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>7.9452054794520546</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="4">
         <v>2.7397260273972601</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="5">
         <v>365</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>29</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>17</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>16.5</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>30</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>7.5</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>200</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>35.911602209944753</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>22.099447513812155</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>19.337016574585636</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>21.546961325966851</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="4">
         <v>1.1049723756906078</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="5">
         <v>181</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>32.283464566929133</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>19.42257217847769</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>17.84776902887139</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>25.984251968503937</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="4">
         <v>4.4619422572178475</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>2.6666666666666665</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>40.888888888888886</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>0.44444444444444442</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>46.222222222222221</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>9.7777777777777786</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>225</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>3.2679738562091503</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>42.483660130718953</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>0</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>46.405228758169933</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="4">
         <v>7.8431372549019605</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="5">
         <v>153</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>2.9100529100529102</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>41.534391534391531</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>0.26455026455026454</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>46.296296296296298</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="4">
         <v>8.9947089947089953</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>41.379310344827587</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>25.431034482758619</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>6.8965517241379306</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>13.362068965517242</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>12.931034482758621</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>232</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>50.467289719626166</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>19.626168224299064</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>18.691588785046729</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>3.7383177570093458</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>7.4766355140186915</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>107</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>44.247787610619469</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>23.598820058997049</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>10.619469026548673</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>10.32448377581121</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>11.2094395280236</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="5">
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>42.27642276422764</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>25.203252032520325</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>11.382113821138212</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>9.7560975609756095</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>11.382113821138212</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>123</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>42</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>22.8</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>13.6</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>14.8</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>6.8</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>250</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>42.091152815013402</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>23.592493297587133</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>12.868632707774799</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>13.136729222520108</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>8.310991957104557</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="5">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>31.25</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>52.083333333333336</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>8.3333333333333339</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>2.0833333333333335</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="4">
         <v>6.25</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>31.343283582089551</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>59.104477611940297</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>1.4925373134328359</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>8.0597014925373127</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="4">
         <v>0</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="5">
         <v>335</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>31.331592689295039</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>58.224543080939945</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>2.3498694516971281</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>7.3107049608355092</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <v>0.78328981723237601</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>47.333333333333336</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>8.6666666666666661</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>42</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="4">
         <v>1.3333333333333333</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>150</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>39.406779661016948</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>20.338983050847457</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>30.084745762711865</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="4">
         <v>10.169491525423728</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="4">
         <v>0</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="5">
         <v>236</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>42.487046632124354</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>15.803108808290155</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>34.715025906735754</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="4">
         <v>6.4766839378238341</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="4">
         <v>0.51813471502590669</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="4">
         <v>0</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>0</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="4">
         <v>30.971128608923884</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>22.834645669291337</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>14.960629921259843</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>28.871391076115486</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>2.3622047244094486</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>381</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>30.971128608923884</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>22.834645669291337</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>14.960629921259843</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>28.871391076115486</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>2.3622047244094486</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>20.512820512820515</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>10.256410256410257</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>2.5641025641025643</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>39</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>31.671554252199414</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>33.724340175953081</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>4.9853372434017595</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>27.565982404692082</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>2.0527859237536656</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>341</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>30.526315789473685</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>33.684210526315788</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>5.5263157894736841</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>28.157894736842106</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>2.1052631578947367</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>68.604651162790702</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>19.767441860465116</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>9.3023255813953494</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>0</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="4">
         <v>2.3255813953488373</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>172</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>64.835164835164832</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>10.989010989010989</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>23.626373626373628</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="4">
         <v>0.5494505494505495</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="4">
         <v>0</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="5">
         <v>182</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>66.666666666666671</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>15.254237288135593</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>16.666666666666668</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="4">
         <v>0.2824858757062147</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="4">
         <v>1.1299435028248588</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="5">
         <v>354</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>25</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>9.375</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>9.375</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>40.625</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="4">
         <v>15.625</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>32</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>15.573770491803279</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>31.693989071038253</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>5.7377049180327866</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>44.808743169398909</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>2.1857923497267762</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>366</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>16.331658291457288</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>29.899497487437184</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>6.0301507537688446</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>44.472361809045225</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>3.2663316582914574</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="5">
         <v>398</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>40.39408866995074</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>23.152709359605911</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>12.807881773399014</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>18.226600985221676</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>5.4187192118226601</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>41.111111111111114</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>33.888888888888886</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>8.8888888888888893</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>15</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>1.1111111111111112</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>40.731070496083554</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>28.198433420365536</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>10.966057441253264</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>16.710182767624023</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>3.3942558746736293</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>44.186046511627907</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>20.348837209302324</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>16.86046511627907</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>12.209302325581396</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="4">
         <v>6.3953488372093021</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>172</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>45.365853658536587</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>24.390243902439025</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>8.7804878048780495</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>18.048780487804876</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>3.4146341463414633</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>205</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>44.827586206896555</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>22.546419098143236</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>12.46684350132626</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>15.384615384615385</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>4.7745358090185679</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="5">
         <v>377</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>38.829787234042556</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>32.446808510638299</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>9.0425531914893611</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>15.425531914893616</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="4">
         <v>4.2553191489361701</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>188</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>43.07692307692308</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>27.692307692307693</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>14.871794871794872</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>7.6923076923076925</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>195</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>40.992167101827675</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>30.026109660574413</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>7.8328981723237598</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>15.143603133159269</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>6.0052219321148828</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>1.567398119122257</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>3.134796238244514</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>1.2539184952978057</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>73.98119122257053</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>20.062695924764892</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>319</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>9.67741935483871</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>43.548387096774192</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>3.225806451612903</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="4">
         <v>30.64516129032258</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="4">
         <v>12.903225806451612</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="5">
         <v>62</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>2.8871391076115485</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>9.7112860892388451</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>1.5748031496062993</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>66.929133858267718</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>18.897637795275589</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>34.408602150537632</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>29.032258064516128</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>21.50537634408602</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>11.290322580645162</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>3.763440860215054</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>186</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>43.75</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>19.791666666666668</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>20.833333333333332</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>12.5</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>3.125</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>192</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>39.153439153439152</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>24.338624338624339</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>21.164021164021165</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>11.904761904761905</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>3.4391534391534391</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>25.828970331588131</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>46.247818499127398</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>11.69284467713787</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>10.122164048865619</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>6.1082024432809776</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>573</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>18.471810089020771</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>25.96439169139466</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>11.350148367952523</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>32.047477744807125</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>12.166172106824925</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1348</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>20.666319625195211</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>32.014575741801146</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>11.452368558042686</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>25.507548152004166</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>10.359187922956794</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="5">
         <v>1921</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>64.705882352941174</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>26.470588235294116</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>4.4117647058823533</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>4.4117647058823533</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="4">
         <v>0</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="5">
         <v>136</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>54.95145631067961</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>25.242718446601941</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>9.7087378640776691</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>6.9902912621359219</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>3.1067961165048543</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>515</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>56.98924731182796</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>25.499231950844855</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>8.6021505376344081</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>6.4516129032258061</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>2.4577572964669741</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="5">
         <v>651</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>43.609022556390975</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>33.082706766917291</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>5.2631578947368425</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>10.526315789473685</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>7.518796992481203</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>133</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>47.89473684210526</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>20.526315789473685</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>8.9473684210526319</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>13.684210526315789</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>8.9473684210526319</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>190</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>46.130030959752325</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>25.69659442724458</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>7.4303405572755414</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>12.383900928792571</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>8.3591331269349851</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="5">
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>39.545454545454547</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>32.727272727272727</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>10</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>14.545454545454545</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>3.1818181818181817</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>220</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>35.537190082644628</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>24.793388429752067</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>14.87603305785124</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>19.008264462809919</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <v>5.785123966942149</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>121</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>38.123167155425222</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>29.912023460410555</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>11.730205278592376</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>16.129032258064516</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <v>4.1055718475073313</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="5">
         <v>341</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>39.354838709677416</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>18.70967741935484</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>10.96774193548387</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>25.161290322580644</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>5.806451612903226</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>40.259740259740262</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>36.363636363636367</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>8.2251082251082259</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>11.688311688311689</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>3.4632034632034632</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>231</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>39.896373056994818</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>29.274611398963732</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>9.3264248704663206</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>17.098445595854923</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>4.4041450777202069</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>27.027027027027028</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>30.63063063063063</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>27.927927927927929</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>11.711711711711711</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <v>2.7027027027027026</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>35.661764705882355</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>32.720588235294116</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>11.397058823529411</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>11.397058823529411</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>8.8235294117647065</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>33.159268929503916</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>32.114882506527415</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>16.187989556135769</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>11.488250652741515</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>7.0496083550913839</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>40</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="4">
         <v>13.333333333333334</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>39.775910364145659</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>26.050420168067227</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>16.246498599439775</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>13.165266106442576</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>4.7619047619047619</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>357</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>39.784946236559136</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>26.344086021505376</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>15.86021505376344</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>12.903225806451612</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>5.10752688172043</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="5">
         <v>372</v>
       </c>
     </row>
